--- a/Casioclone_bug_report.xlsx
+++ b/Casioclone_bug_report.xlsx
@@ -519,7 +519,7 @@
     <xdr:ext cx="1885950" cy="1333500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -547,7 +547,7 @@
     <xdr:ext cx="2609850" cy="1095375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -575,7 +575,7 @@
     <xdr:ext cx="1666875" cy="1724025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -603,7 +603,7 @@
     <xdr:ext cx="495300" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -631,7 +631,7 @@
     <xdr:ext cx="238125" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -659,7 +659,7 @@
     <xdr:ext cx="2647950" cy="1409700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -687,7 +687,7 @@
     <xdr:ext cx="2809875" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -715,7 +715,7 @@
     <xdr:ext cx="2266950" cy="1133475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
